--- a/IndianTeam.xlsx
+++ b/IndianTeam.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianselvarajaugustine/eclipse-workspace/demowebshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4C72A-AC8F-A84E-BDD5-D4C472772F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F64FDC-1E6C-6843-A84C-1D4E20CE6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" activeTab="1" xr2:uid="{A9930B37-C57C-A147-8651-95ED149DE60B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" activeTab="2" xr2:uid="{A9930B37-C57C-A147-8651-95ED149DE60B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="userDetails" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="registeredUserList" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>firstName</t>
   </si>
@@ -78,15 +78,6 @@
     <t>Sharma</t>
   </si>
   <si>
-    <t>Yuvi@bcci2323.com</t>
-  </si>
-  <si>
-    <t>Dhoni@bcci2323.com</t>
-  </si>
-  <si>
-    <t>Virat@bcci2323.com</t>
-  </si>
-  <si>
     <t>Rohit@bcci2323.com</t>
   </si>
   <si>
@@ -100,13 +91,28 @@
   </si>
   <si>
     <t>YouKnowMe126</t>
+  </si>
+  <si>
+    <t>Yuvi@bcci231.com</t>
+  </si>
+  <si>
+    <t>Dhoni@bcci2353.com</t>
+  </si>
+  <si>
+    <t>Virat@bcci23233.com</t>
+  </si>
+  <si>
+    <t>Yuvi@bcci241.com</t>
+  </si>
+  <si>
+    <t>Dhoni@bcci2363.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +130,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,9 +163,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,7 +484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5723896-2F2E-2049-B474-A564C814E88B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -482,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B8976-2FEA-AD48-AA5E-A879252530E8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +509,7 @@
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -535,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -552,13 +568,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,13 +585,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -592,15 +608,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A91BC3-3755-8948-9296-EF26C1BD4484}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IndianTeam.xlsx
+++ b/IndianTeam.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianselvarajaugustine/eclipse-workspace/demowebshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F64FDC-1E6C-6843-A84C-1D4E20CE6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB0443-5643-6241-A926-2E20F8D65278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" activeTab="2" xr2:uid="{A9930B37-C57C-A147-8651-95ED149DE60B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{A9930B37-C57C-A147-8651-95ED149DE60B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="userDetails" sheetId="1" r:id="rId2"/>
-    <sheet name="registeredUserList" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="registeredUserList" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>firstName</t>
   </si>
@@ -84,9 +85,6 @@
     <t>YouKnowMe123</t>
   </si>
   <si>
-    <t>YouKnowMe124</t>
-  </si>
-  <si>
     <t>YouKnowMe125</t>
   </si>
   <si>
@@ -106,12 +104,76 @@
   </si>
   <si>
     <t>Dhoni@bcci2363.com</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Dhoni2@bcci2323.com</t>
+  </si>
+  <si>
+    <t>STUDENTSINFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENT ID </t>
+  </si>
+  <si>
+    <t>STUDENT NAME</t>
+  </si>
+  <si>
+    <t>DEPT NO</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>AJAY</t>
+  </si>
+  <si>
+    <t>BINNY</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>DIWAKAR</t>
+  </si>
+  <si>
+    <t>ELENOR</t>
+  </si>
+  <si>
+    <t>HARSHITA</t>
+  </si>
+  <si>
+    <t>DEPARTMENTS</t>
+  </si>
+  <si>
+    <t>DEPT NAME</t>
+  </si>
+  <si>
+    <t>HOD NAME</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>DHONI@bcci2411.com</t>
+  </si>
+  <si>
+    <t>PANT@bcci2411.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -142,12 +204,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,10 +231,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,102 +565,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B8976-2FEA-AD48-AA5E-A879252530E8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="21.83203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="D5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -602,32 +688,147 @@
     <hyperlink ref="C3" r:id="rId3" xr:uid="{2070F936-F731-6945-96A4-63DCA4F3F631}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{88DEC750-C1ED-4746-A0D5-999AD08B569B}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{03856671-8546-7849-9B87-B688C891BB7C}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{7ADF2572-5C59-A14A-863A-685255995D6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C9E367-7CB9-0540-B799-08DF89434838}">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="49.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.3">
@@ -643,23 +844,33 @@
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="A9" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
